--- a/doc/SPE/FI-SPE-金润智能理财功能清单V1.2.xlsx
+++ b/doc/SPE/FI-SPE-金润智能理财功能清单V1.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\理财通\smp\doc\SPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>分页展示提出资金的明细列表</t>
-  </si>
-  <si>
-    <t>限制提现必须先提待反钱包</t>
   </si>
   <si>
     <t>市场管理</t>
@@ -306,14 +303,167 @@
     <t>资金上限配置</t>
   </si>
   <si>
+    <t>资金注入基数设置</t>
+  </si>
+  <si>
+    <t>注入资金可以设置是1000或100等的倍数</t>
+  </si>
+  <si>
+    <t>注入资金管理</t>
+  </si>
+  <si>
+    <t>已注入资金、待注入资金（尾款）查询、导出功能</t>
+  </si>
+  <si>
+    <t>提取资金管理</t>
+  </si>
+  <si>
+    <t>已提取资金、待提取资金查询、导出功能</t>
+  </si>
+  <si>
+    <t>菜单管理</t>
+  </si>
+  <si>
+    <t>菜单配置</t>
+  </si>
+  <si>
+    <t>配置不同角色用户的可以查看的菜单</t>
+  </si>
+  <si>
+    <t>角色配置</t>
+  </si>
+  <si>
+    <t>客服、财务、管理员等用户角色</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <t>用户查询</t>
+  </si>
+  <si>
+    <t>用户基本信息、银行信息查询、导出</t>
+  </si>
+  <si>
+    <t>用户数据重置</t>
+  </si>
+  <si>
+    <t>重置用户的所有数据信息</t>
+  </si>
+  <si>
+    <t>意见反馈管理</t>
+  </si>
+  <si>
+    <t>意见反馈处理</t>
+  </si>
+  <si>
+    <t>回复客户提出的问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">业务规则
+1、注入资金是1000的倍数
+2、提取资金是100的倍数
+3、每天只能提取一单
+4、1%按照首付款时间开始计算
+4、15天必须提取待返钱包（天数可设置）
+5、手续费客户给（手续费比例待定）
+</t>
+  </si>
+  <si>
+    <t>任意第三方，能收款就行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计管理</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个团队的总人数以及直推人数，还有这里面含有多少新增直推，有多少新增其他人力，每月1日为时间点，比较上个月新增人力百分比是多少</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台提出数据，手动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发费用</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>云服务器（2核心8G内存）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSS资源存储（40G）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库服务器（MYSQL5.6、1核心2G内存）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>45人天*400元/人天=18000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个月注册用户送激活码，激活码分为100元、500元两种类型，金额不同限额不同</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>前
+端
+用
+户
+功
+能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加个购买vip按钮，在会员等级显示那，价格五万，vip会员不受全盘达到入账上限，无法注入资金影响</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要筛选不同等级得会员</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要筛选50人以上的，以及筛选100人以上团队业绩</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要提出数据，团队所有打完尾款的数据之和</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要看到每个团队新增人力，新增百分比</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>注入资金上限管理，</t>
     </r>
     <r>
@@ -324,82 +474,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>可以设置总体每日首单量收单数</t>
+      <t>可以设置总体每日收单量收单数</t>
     </r>
-  </si>
-  <si>
-    <t>资金注入基数设置</t>
-  </si>
-  <si>
-    <t>注入资金可以设置是1000或100等的倍数</t>
-  </si>
-  <si>
-    <t>注入资金管理</t>
-  </si>
-  <si>
-    <t>已注入资金、待注入资金（尾款）查询、导出功能</t>
-  </si>
-  <si>
-    <t>提取资金管理</t>
-  </si>
-  <si>
-    <t>已提取资金、待提取资金查询、导出功能</t>
-  </si>
-  <si>
-    <t>菜单管理</t>
-  </si>
-  <si>
-    <t>菜单配置</t>
-  </si>
-  <si>
-    <t>配置不同角色用户的可以查看的菜单</t>
-  </si>
-  <si>
-    <t>角色配置</t>
-  </si>
-  <si>
-    <t>客服、财务、管理员等用户角色</t>
-  </si>
-  <si>
-    <t>用户管理</t>
-  </si>
-  <si>
-    <t>用户查询</t>
-  </si>
-  <si>
-    <t>用户基本信息、银行信息查询、导出</t>
-  </si>
-  <si>
-    <t>用户数据重置</t>
-  </si>
-  <si>
-    <t>重置用户的所有数据信息</t>
-  </si>
-  <si>
-    <t>意见反馈管理</t>
-  </si>
-  <si>
-    <t>意见反馈处理</t>
-  </si>
-  <si>
-    <t>回复客户提出的问题</t>
-  </si>
-  <si>
-    <t xml:space="preserve">业务规则
-1、注入资金是1000的倍数
-2、提取资金是100的倍数
-3、每天只能提取一单
-4、1%按照首付款时间开始计算
-4、15天必须提取待返钱包（天数可设置）
-5、手续费客户给（手续费比例待定）
-</t>
-  </si>
-  <si>
-    <t>任意第三方，能收款就行</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计管理</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -407,72 +483,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>每个团队的总人数以及直推人数，还有这里面含有多少新增直推，有多少新增其他人力，每月1日为时间点，比较上个月新增人力百分比是多少</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台提出数据，手动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>明细</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发费用</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>云服务器（2核心8G内存）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OSS资源存储（40G）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库服务器（MYSQL5.6、1核心2G内存）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>45人天*400元/人天=18000</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一个月注册用户送激活码，激活码分为100元、500元两种类型，金额不同限额不同</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>前
-端
-用
-户
-功
-能</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加个购买vip按钮，在会员等级显示那，价格五万，vip会员不受全盘达到入账上限，无法注入资金影响</t>
+    <t>限制提现必须先提待返钱包</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -501,22 +512,6 @@
       <t xml:space="preserve">
 3、跟着本息钱包，不在1.2倍限定内</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要筛选不同等级得会员</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要看到每个团队新增人力，新增百分比</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要筛选50人以上的，以及筛选100人以上团队业绩</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要提出数据，团队所有打完尾款的数据之和</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1312,8 +1307,8 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25"/>
@@ -1364,7 +1359,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>9</v>
@@ -1457,7 +1452,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G7" s="27">
         <v>12</v>
@@ -1476,7 +1471,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="5"/>
@@ -1497,7 +1492,7 @@
         <v>27</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G9" s="29">
         <v>1</v>
@@ -1552,7 +1547,7 @@
         <v>34</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="5"/>
@@ -1609,7 +1604,7 @@
         <v>43</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="G15" s="11">
         <v>2</v>
@@ -1628,7 +1623,7 @@
         <v>45</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="G16" s="11">
         <v>1</v>
@@ -1642,16 +1637,16 @@
       </c>
       <c r="B17" s="40"/>
       <c r="C17" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="F17" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G17" s="17">
         <v>5</v>
@@ -1664,13 +1659,13 @@
       <c r="B18" s="40"/>
       <c r="C18" s="28"/>
       <c r="D18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="G18" s="11">
         <v>1</v>
@@ -1684,13 +1679,13 @@
       </c>
       <c r="B19" s="40"/>
       <c r="C19" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="E19" s="21" t="s">
         <v>54</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>55</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="29">
@@ -1704,10 +1699,10 @@
       <c r="B20" s="40"/>
       <c r="C20" s="30"/>
       <c r="D20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>56</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>57</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="30"/>
@@ -1719,10 +1714,10 @@
       <c r="B21" s="40"/>
       <c r="C21" s="31"/>
       <c r="D21" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="30"/>
@@ -1735,11 +1730,11 @@
       </c>
       <c r="B22" s="40"/>
       <c r="C22" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="31"/>
@@ -1752,13 +1747,13 @@
       </c>
       <c r="B23" s="40"/>
       <c r="C23" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="27">
@@ -1772,7 +1767,7 @@
       <c r="B24" s="40"/>
       <c r="C24" s="32"/>
       <c r="D24" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -1785,7 +1780,7 @@
       <c r="B25" s="40"/>
       <c r="C25" s="32"/>
       <c r="D25" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -1798,7 +1793,7 @@
       <c r="B26" s="40"/>
       <c r="C26" s="32"/>
       <c r="D26" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -1811,7 +1806,7 @@
       <c r="B27" s="40"/>
       <c r="C27" s="32"/>
       <c r="D27" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -1824,7 +1819,7 @@
       <c r="B28" s="40"/>
       <c r="C28" s="32"/>
       <c r="D28" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -1837,7 +1832,7 @@
       <c r="B29" s="41"/>
       <c r="C29" s="28"/>
       <c r="D29" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -1850,16 +1845,16 @@
         <v>10</v>
       </c>
       <c r="B30" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="D30" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="27">
@@ -1873,10 +1868,10 @@
       <c r="B31" s="26"/>
       <c r="C31" s="44"/>
       <c r="D31" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="32"/>
@@ -1888,10 +1883,10 @@
       <c r="B32" s="26"/>
       <c r="C32" s="43"/>
       <c r="D32" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="28"/>
@@ -1905,10 +1900,10 @@
         <v>38</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="27">
@@ -1922,10 +1917,10 @@
       <c r="B34" s="26"/>
       <c r="C34" s="43"/>
       <c r="D34" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="28"/>
@@ -1936,13 +1931,13 @@
       <c r="A35" s="37"/>
       <c r="B35" s="26"/>
       <c r="C35" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="27">
@@ -1956,10 +1951,10 @@
       <c r="B36" s="26"/>
       <c r="C36" s="43"/>
       <c r="D36" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="32"/>
@@ -1970,13 +1965,13 @@
       <c r="A37" s="37"/>
       <c r="B37" s="26"/>
       <c r="C37" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="32"/>
@@ -1988,10 +1983,10 @@
       <c r="B38" s="26"/>
       <c r="C38" s="43"/>
       <c r="D38" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="28"/>
@@ -2002,13 +1997,13 @@
       <c r="A39" s="38"/>
       <c r="B39" s="26"/>
       <c r="C39" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="11">
@@ -2021,14 +2016,14 @@
       <c r="A40" s="13"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G40" s="27">
         <v>4</v>
@@ -2042,7 +2037,7 @@
       <c r="C41" s="25"/>
       <c r="D41" s="5"/>
       <c r="E41" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="32"/>
@@ -2055,7 +2050,7 @@
       <c r="C42" s="25"/>
       <c r="D42" s="5"/>
       <c r="E42" s="15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="32"/>
@@ -2068,7 +2063,7 @@
       <c r="C43" s="25"/>
       <c r="D43" s="5"/>
       <c r="E43" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="28"/>
@@ -2234,7 +2229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J7:L17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -2245,7 +2240,7 @@
   <sheetData>
     <row r="7" spans="10:12">
       <c r="J7" s="45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K7" s="46"/>
       <c r="L7" s="46"/>
@@ -2317,7 +2312,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2330,24 +2325,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1">
       <c r="A1" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C2" s="19">
         <v>15000</v>
@@ -2356,10 +2351,10 @@
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C3" s="19">
         <v>3053</v>
@@ -2369,7 +2364,7 @@
     <row r="4" spans="1:4" ht="18.75" customHeight="1">
       <c r="A4" s="19"/>
       <c r="B4" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C4" s="19">
         <v>2692</v>
@@ -2379,7 +2374,7 @@
     <row r="5" spans="1:4" ht="18.75" customHeight="1">
       <c r="A5" s="19"/>
       <c r="B5" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C5" s="19">
         <v>9</v>
@@ -2388,7 +2383,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19">
